--- a/TradingSimula_18-2022/TF-Boll.Donch_1R.xlsx
+++ b/TradingSimula_18-2022/TF-Boll.Donch_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1178 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>3317.949999999992</v>
+        <v>-35968.89100902498</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>-681.4556987177184</v>
+        <v>-248270.4559785896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>-760.3558607284963</v>
+        <v>-225046.4022302157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>1948.244139271502</v>
+        <v>-386371.7976897324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>1538.444139271504</v>
+        <v>-416851.0317119447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>5433.334490762974</v>
+        <v>-432345.8788068959</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>11242.66689159054</v>
+        <v>-431003.109910821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>13245.32666399274</v>
+        <v>-408358.0360873455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>28217.52666399275</v>
+        <v>-355407.2277947532</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>44354.32666399274</v>
+        <v>-434855.9150646564</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>39779.67666399274</v>
+        <v>-466436.5257882222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>73370.57666399275</v>
+        <v>-427918.4837143907</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>88870.07666399278</v>
+        <v>-683867.1359287784</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>107089.8266639927</v>
+        <v>-688569.9502403421</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>108758.5766639927</v>
+        <v>-546809.5238532651</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>113078.3766639927</v>
+        <v>-633775.280390573</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>101618.0266639928</v>
+        <v>-855785.2064056881</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>94987.18654751364</v>
+        <v>-808857.2250545603</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>109995.5184906299</v>
+        <v>-737099.8820759204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>99117.41849062993</v>
+        <v>-726757.9690394829</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>84014.57041905195</v>
+        <v>-594643.8833086288</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>84745.82041905195</v>
+        <v>-703465.1831111051</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>82533.21498067459</v>
+        <v>-738724.4498745232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>86293.7649806746</v>
+        <v>-915305.2584434118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>80070.31498067458</v>
+        <v>-926515.4875304052</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>84383.1533125345</v>
+        <v>-970104.4329559866</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>91847.1533125345</v>
+        <v>-860217.8811306763</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>92785.61995993767</v>
+        <v>-1062287.231774427</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>107809.5503408434</v>
+        <v>-917883.7168277238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>98309.20034084335</v>
+        <v>-977430.1461904706</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>96622.95034084338</v>
+        <v>-875441.1960701162</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>95912.95034084337</v>
+        <v>-914809.6980941546</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>95912.95034084337</v>
+        <v>-752508.2080927863</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>93766.2899818666</v>
+        <v>-910575.4746290897</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>96297.18559544985</v>
+        <v>-864653.9093039801</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>97756.91700409139</v>
+        <v>-922502.3782599499</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>95920.97965462494</v>
+        <v>-830588.2782599495</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>95351.574594868</v>
+        <v>-1095748.720512998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41361</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>98805.76055303329</v>
+        <v>-1279169.406657168</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>97813.6105530333</v>
+        <v>-1369453.916517257</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>98895.23554289876</v>
+        <v>-1349460.670102181</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>98350.68554289876</v>
+        <v>-1349921.891234558</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>93313.43554289876</v>
+        <v>-1159486.837350534</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>90606.03554289875</v>
+        <v>-1156461.393912652</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>90969.61073090453</v>
+        <v>-1173352.9932588</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>96031.06542377407</v>
+        <v>-973996.9037762888</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>93950.86542377407</v>
+        <v>-1046998.555992458</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>90606.53136669817</v>
+        <v>-349629.7421576923</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>92544.73136669818</v>
+        <v>45278.68945749306</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>109813.1201901606</v>
+        <v>791340.3083032639</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>112103.1201901606</v>
+        <v>1395031.631246884</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>121421.8701901606</v>
+        <v>357578.5957558653</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>110659.3701901606</v>
+        <v>331281.7522789805</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>112424.3701901606</v>
+        <v>128552.7221131039</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>118909.1701901606</v>
+        <v>-11275.04191137856</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>118145.5701901606</v>
+        <v>-279382.4675476464</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>121417.5701901606</v>
+        <v>-407030.2167708239</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>112823.0201901606</v>
+        <v>-544097.8513217822</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>113617.0201901606</v>
+        <v>-309796.0549933456</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>113560.4201901606</v>
+        <v>-654412.7960627873</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>111310.9692325288</v>
+        <v>-708579.1931392027</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>119695.6499905165</v>
+        <v>-667979.0553553723</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>122841.4499905165</v>
+        <v>-670870.6253800918</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>118883.0499905165</v>
+        <v>-822291.7477927486</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>120721.1499905165</v>
+        <v>-1019489.788764317</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>118810.8626055627</v>
+        <v>-1321649.540996904</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>122981.7126055627</v>
+        <v>-1425568.503277471</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>118906.2656489924</v>
+        <v>-1484988.177174195</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>119244.9156489923</v>
+        <v>-1677442.156045694</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>116323.5427929848</v>
+        <v>-1477220.337585924</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>116782.7427929848</v>
+        <v>-800522.2326028178</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>117129.9427929848</v>
+        <v>-310739.0287010787</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>115481.446485453</v>
+        <v>666761.0194536414</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>114374.296485453</v>
+        <v>507645.2322754661</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>111578.3375829474</v>
+        <v>2076607.646806175</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>107508.4084981171</v>
+        <v>5061620.180399013</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>107593.4084981171</v>
+        <v>5460787.566011249</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>113105.6786346767</v>
+        <v>4306478.942014354</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>116813.3286346767</v>
+        <v>4118613.219550446</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>110672.0286346767</v>
+        <v>4097580.7075012</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>111078.3058549547</v>
+        <v>4121241.141782111</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>109089.2058549547</v>
+        <v>4154452.457909811</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>104643.8558549547</v>
+        <v>4655030.230414297</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>105689.5256337915</v>
+        <v>4878404.363062438</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>98530.17660880188</v>
+        <v>5294493.93076123</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>98415.17660880188</v>
+        <v>4464596.281768793</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>100368.1192998497</v>
+        <v>3955934.680372198</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>101110.3809213328</v>
+        <v>4760911.138819102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>102944.4902845795</v>
+        <v>4395470.156531617</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>108346.6013681201</v>
+        <v>4161369.823780283</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>103685.8513681201</v>
+        <v>3749627.35062716</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>102552.6513681202</v>
+        <v>3061506.857558304</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>102552.6513681202</v>
+        <v>2757779.352025792</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>102552.6513681202</v>
+        <v>2397267.457562828</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>102181.8215897828</v>
+        <v>2088860.36497288</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>102346.1886014675</v>
+        <v>2249912.147346355</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>100819.3609513371</v>
+        <v>2176822.427653825</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>101857.8995185796</v>
+        <v>4410760.700201088</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>103720.2495185796</v>
+        <v>3047852.550201088</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>102977.5495185796</v>
+        <v>2989640.364484884</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>105164.1523078986</v>
+        <v>2468015.505152015</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>102249.1523078986</v>
+        <v>1924674.584034255</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>105187.8892338002</v>
+        <v>586935.0424160039</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>109313.1392338002</v>
+        <v>1983304.992691171</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>109157.3500113247</v>
+        <v>3954321.473637604</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>102703.635428909</v>
+        <v>8150568.001588786</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>100772.885428909</v>
+        <v>8440992.59512019</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>100974.939109684</v>
+        <v>8757440.100120189</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>99874.93910968395</v>
+        <v>8923037.12503059</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>101454.9391096839</v>
+        <v>8927579.372530589</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>100132.788981098</v>
+        <v>9063326.96477937</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>101576.538981098</v>
+        <v>9172003.762203837</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>102187.517295984</v>
+        <v>10154343.25274496</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>102830.967295984</v>
+        <v>9338869.885745164</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>99703.96729598398</v>
+        <v>10211239.78588513</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>103407.367295984</v>
+        <v>10754137.75117652</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>100265.967295984</v>
+        <v>11234459.71713909</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>99521.22768551034</v>
+        <v>11362034.8159507</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>101839.6092850676</v>
+        <v>13138537.99218128</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>108215.9592850676</v>
+        <v>12783146.19854794</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>102742.5092850676</v>
+        <v>12182786.51686868</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>104046.2289738233</v>
+        <v>12008091.49496898</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>109802.3854035382</v>
+        <v>11595902.61617967</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>107294.9854035382</v>
+        <v>11130157.70255456</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>107063.820308474</v>
+        <v>10198882.41442742</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>104313.920308474</v>
+        <v>10206615.7800636</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>101995.140665667</v>
+        <v>9581227.120063597</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>104670.6519455198</v>
+        <v>9678533.74127974</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>97696.45194551976</v>
+        <v>11393056.70986865</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>99856.17898463822</v>
+        <v>13040304.01986866</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>100669.1789846382</v>
+        <v>15064258.10967109</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>104751.7789846382</v>
+        <v>18109905.81142203</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>103778.5810313967</v>
+        <v>16143062.66150251</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>113590.8810313967</v>
+        <v>17239302.26964713</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>104941.6310313967</v>
+        <v>18617526.12217892</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>104713.6612674083</v>
+        <v>24038460.99564054</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>112976.7612674082</v>
+        <v>16946052.63346328</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>110234.6612674083</v>
+        <v>16905132.63223346</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>116741.2612674083</v>
+        <v>16907139.43766765</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>124011.2300165338</v>
+        <v>15315571.63434706</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>126084.9300165338</v>
+        <v>17241924.5950824</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>133361.5800165338</v>
+        <v>13753175.48768258</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>140311.7300165338</v>
+        <v>14533834.30313334</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>139620.5300165338</v>
+        <v>16981528.49508205</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>150749.3300165338</v>
+        <v>15417012.86062544</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>147473.3800165338</v>
+        <v>14778219.09121836</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
+        <v>40998</v>
+      </c>
+      <c r="B149" t="n">
+        <v>13389350.69363781</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B150" t="n">
+        <v>13070324.54731765</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B151" t="n">
+        <v>14509311.43310907</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41089</v>
+      </c>
+      <c r="B152" t="n">
+        <v>14180707.32489121</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B153" t="n">
+        <v>14239430.46492955</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>14719950.08474906</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="B155" t="n">
+        <v>16803721.02296036</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B156" t="n">
+        <v>15126123.00608939</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>14478440.22690738</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B158" t="n">
+        <v>14673160.95233463</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B159" t="n">
+        <v>13621105.62217306</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>14048450.14546284</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41361</v>
+      </c>
+      <c r="B161" t="n">
+        <v>14294436.03817112</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B162" t="n">
+        <v>16930713.68635776</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B163" t="n">
+        <v>17685953.02775641</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41453</v>
+      </c>
+      <c r="B164" t="n">
+        <v>19623032.19538699</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B165" t="n">
+        <v>19102775.86076593</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41516</v>
+      </c>
+      <c r="B166" t="n">
+        <v>17668143.14412621</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B167" t="n">
+        <v>16501910.7278749</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B168" t="n">
+        <v>16507334.93417585</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>16373126.46162241</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B170" t="n">
+        <v>16470291.06652249</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B171" t="n">
+        <v>16221986.8599539</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B172" t="n">
+        <v>15193428.65906272</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B173" t="n">
+        <v>14955293.82567234</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>14953411.09881884</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41789</v>
+      </c>
+      <c r="B175" t="n">
+        <v>14704585.35411719</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>14075910.48872427</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>13713706.27535797</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>13256308.46499748</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>13787304.65564257</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>14124083.28518709</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>14980038.62778207</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>14965005.98030027</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>14938532.68034164</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>14145668.96412629</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>14057954.19572882</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>14044364.81927162</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>13574465.03832692</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>13446090.50931605</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>14260206.02327863</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>14486886.36807515</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>13804304.30816602</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>13429215.25956486</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>13632069.15109349</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>13416351.80793194</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>13555161.07341057</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>13006195.28117505</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>13151761.55570588</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>14169711.44345124</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>13260134.02755549</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>13435079.97301033</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>14323449.22780182</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>13358054.38205566</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>13328744.50793469</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>13126358.67154377</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>13672788.91514196</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>13672494.88247889</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>13548787.06052242</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>13622526.86858921</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>13335509.84024815</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>13304300.35523331</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>12655038.82896581</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>12552218.088434</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>12600500.61049758</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>13075556.65134194</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>12317369.29379405</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>12783676.75625085</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>12689367.20205026</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>12690512.17926731</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>12205186.03279174</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>11808967.96993739</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>11693520.38759744</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>11374761.61904578</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>11379645.21076174</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>11040083.65475045</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>11695331.87965639</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>12673521.12965639</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>12225268.87335845</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>12261036.08768467</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>11958187.82921008</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>12377515.72601997</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>12219669.28451271</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>12259590.839319</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>11986093.16055903</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>11816059.24892598</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>12053862.17205664</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>11481150.3162523</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>11796809.88693875</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>12597247.1051559</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>11644179.92379926</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>12173362.77257488</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>11655432.61305865</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>11887085.79977478</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>11175693.50404057</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>10691509.94729391</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>13031499.78964393</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>12055690.33964393</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>11257307.78694059</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>11403121.30473037</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>13826287.3315236</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>16583762.36954681</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>13401408.01954681</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>12786499.91605397</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>13547948.65411357</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>12707172.27034738</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>11309313.67561368</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>11811337.26571392</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>11048443.64724543</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>11520181.00078627</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>12025747.1748725</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>10315607.15477383</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>10301691.23268831</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>9985001.168493288</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>10821583.29068984</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>9283556.441948295</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>9211610.228229156</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>8317117.803600229</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>8064987.923652655</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>7158337.251777675</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B149" t="n">
-        <v>152522.0273765316</v>
+      <c r="B269" t="n">
+        <v>8204324.317234282</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>7403449.192234282</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>7473036.622850753</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>8638981.383721719</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>8844702.821226317</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>9836577.975037782</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>9192200.192387737</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>8513215.513051698</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>8767926.860120084</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>10073823.31843119</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>11031537.3478942</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>9800856.05274857</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>8211808.630900875</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>7878128.735984829</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>7603903.544177066</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>6911333.261205968</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>7029113.827011306</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>6866119.678193534</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>6601656.820339265</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>6181071.556427719</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>6336112.365003881</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>5491076.212415261</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>5090088.097415261</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>5186874.196689203</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>5243957.658497388</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>7333382.402382942</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>9312476.838260034</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>8375099.682481317</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>8756305.847626515</v>
       </c>
     </row>
   </sheetData>
